--- a/data/trans_camb/P1409-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Estudios-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>1.28981183713449</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.890207168235169</v>
+        <v>2.89020716823517</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9648433714505504</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.019719312699729</v>
+        <v>-0.950059253467249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4242524045217093</v>
+        <v>0.4026758653604574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3640565676050636</v>
+        <v>-0.39730291967802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.38804430918752</v>
+        <v>1.417211504950651</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3671766343372517</v>
+        <v>-0.08247868980468562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.405868598137625</v>
+        <v>1.371805321396504</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.053721059617459</v>
+        <v>2.057450894477954</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.13179927683354</v>
+        <v>4.358756954526548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.915362654558948</v>
+        <v>3.138209401750627</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.552731165265007</v>
+        <v>4.591596826572522</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.193973299234755</v>
+        <v>2.288550615862566</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.879018248766593</v>
+        <v>3.916713182378141</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>0.4060721074377653</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.9099253720173566</v>
+        <v>0.9099253720173568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.330313706564458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9004960253379073</v>
+        <v>0.9004960253379071</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3079785041940937</v>
+        <v>-0.2998365695754918</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.08941799390230375</v>
+        <v>0.09894812498434</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1135869880472459</v>
+        <v>-0.1161853780209301</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3414518755684186</v>
+        <v>0.346770337908883</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1233266582626816</v>
+        <v>-0.02816016089930663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3829476465236203</v>
+        <v>0.3618873744764046</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.119176025675839</v>
+        <v>1.107977623811816</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.109687905133772</v>
+        <v>2.34809721234606</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.114301732053731</v>
+        <v>1.239427564157877</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.847717157100365</v>
+        <v>1.906186117967853</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8388000976382525</v>
+        <v>0.9816153006317077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.637258737387356</v>
+        <v>1.578241225642262</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>0.8993933603248631</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.878050356171291</v>
+        <v>1.87805035617129</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.449526292172931</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.04368473315389746</v>
+        <v>-0.01781215917277251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.884970779986304</v>
+        <v>0.8258767411510427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3365441316542686</v>
+        <v>0.2356573122586605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9578909890899634</v>
+        <v>0.942468478747701</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4358143861853357</v>
+        <v>0.4020750347747589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.122207556988513</v>
+        <v>1.191346953351164</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.869275268720872</v>
+        <v>1.950195165166454</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.328670990110458</v>
+        <v>3.146084339665603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.539635096560101</v>
+        <v>2.477580749369228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.15879300723562</v>
+        <v>3.121852143303034</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.913059238670449</v>
+        <v>1.853309048928294</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.782663509561055</v>
+        <v>2.812783799661408</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02398064522139102</v>
+        <v>-0.0251092979247069</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3713552026333662</v>
+        <v>0.3844091794142055</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1118989701840737</v>
+        <v>0.06731295910811944</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3092850480874322</v>
+        <v>0.3061156383471828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1637391159185001</v>
+        <v>0.1718365324498904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4715578567630494</v>
+        <v>0.5100153462508945</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.470532809877999</v>
+        <v>1.494657004653869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.372783647584967</v>
+        <v>2.462709167108806</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.393261120117656</v>
+        <v>1.369266917598696</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.802056576547192</v>
+        <v>1.810823353397458</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.136453950984344</v>
+        <v>1.111734621516598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.698766646802611</v>
+        <v>1.735091741136644</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>0.1214510490151539</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.40850077380752</v>
+        <v>2.408500773807519</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9475636453223281</v>
@@ -944,7 +944,7 @@
         <v>0.5492608751844066</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.09903379074998</v>
+        <v>2.099033790749981</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.928383948809281</v>
+        <v>-1.79058341058433</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3215390558078899</v>
+        <v>0.2796150564830064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.249677257603112</v>
+        <v>-1.169105333919009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5090113353531169</v>
+        <v>-0.2721712964571269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7788336844441027</v>
+        <v>-0.8386843535014944</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6342559375495994</v>
+        <v>0.6203433974914124</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.005698542917318</v>
+        <v>1.829526646924876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.758378139602463</v>
+        <v>4.785999267550254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.127484634509021</v>
+        <v>3.169240164228073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.572747403378407</v>
+        <v>3.61503074493318</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.934396284509228</v>
+        <v>1.857861134187274</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.68716159317275</v>
+        <v>3.565843324685019</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.2530090596269924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9668894864296184</v>
+        <v>0.9668894864296187</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7395647346580099</v>
+        <v>-0.7305833449765298</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05355434555610578</v>
+        <v>0.00798905756932723</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3389780775619283</v>
+        <v>-0.3597788316319971</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.143081284193617</v>
+        <v>-0.08852466308060228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2931231933728586</v>
+        <v>-0.30716567712432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1867344362919773</v>
+        <v>0.2061116428818661</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.505532729708834</v>
+        <v>2.936301416509084</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.276097005442854</v>
+        <v>6.55740342621038</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.890756043480192</v>
+        <v>2.002283940714879</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.224816790652229</v>
+        <v>2.373266786235412</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.387873825006539</v>
+        <v>1.191527438538938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.493268680593206</v>
+        <v>2.432925697193523</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.9566258421930863</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.004824223378469</v>
+        <v>2.004824223378471</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.08563843002365334</v>
+        <v>-0.1251065878971647</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.138809877814624</v>
+        <v>1.092624805485633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3691903821184991</v>
+        <v>0.3723249127253982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.233176066795221</v>
+        <v>1.297955614009432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3963963596779989</v>
+        <v>0.4358264888892889</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.436003761170229</v>
+        <v>1.373913872400757</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.34759802481548</v>
+        <v>1.285344611992487</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.000179048665828</v>
+        <v>2.911164999811272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.198327315522556</v>
+        <v>2.164522151752375</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.887115133174418</v>
+        <v>2.850838148486827</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.537493258409596</v>
+        <v>1.581551459476505</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.640326074660602</v>
+        <v>2.648076134910141</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>0.4125776273234197</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8646490454259069</v>
+        <v>0.8646490454259076</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04444004879479213</v>
+        <v>-0.06212710489467652</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5071557143667936</v>
+        <v>0.4764749849870473</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1088847002081356</v>
+        <v>0.1067948859034294</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.37521355402767</v>
+        <v>0.3867805844378596</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1429820489348032</v>
+        <v>0.170068586459017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5450803451143771</v>
+        <v>0.5176790014179276</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8196358224762991</v>
+        <v>0.7922816527793486</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.877689002467427</v>
+        <v>1.81462423091649</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9257164402608061</v>
+        <v>0.9275507734682246</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.272690490330284</v>
+        <v>1.232154021087404</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7315165064688837</v>
+        <v>0.7742624287746968</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.276262413105058</v>
+        <v>1.260340221916208</v>
       </c>
     </row>
     <row r="28">
